--- a/GUI + Reviews/Review Comparison/index_comparison_results_20251215_144317.xlsx
+++ b/GUI + Reviews/Review Comparison/index_comparison_results_20251215_144317.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/Review Comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_836E1D0C63C60CB7CD91A7C4C220801DFE094C11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAC99BFA-4679-4525-AD4C-9C1D8BD8D741}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="11_836E1D0C63C60CB7CD91A7C4C220801DFE094C11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C560F750-33C4-4F5F-A682-C76AA43A2716}"/>
   <bookViews>
     <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="256">
   <si>
     <t>Mnemo</t>
   </si>
@@ -804,6 +804,9 @@
   </si>
   <si>
     <t>Check now</t>
+  </si>
+  <si>
+    <t>Check</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6362,6 +6365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7797,6 +7801,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8512,10 +8517,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD046-8157-4CAD-B5BD-E9590CD0231C}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8629,7 +8635,7 @@
         <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8683,7 +8689,7 @@
         <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/GUI + Reviews/Review Comparison/index_comparison_results_20251215_144317.xlsx
+++ b/GUI + Reviews/Review Comparison/index_comparison_results_20251215_144317.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/Review Comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_836E1D0C63C60CB7CD91A7C4C220801DFE094C11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C560F750-33C4-4F5F-A682-C76AA43A2716}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="11_836E1D0C63C60CB7CD91A7C4C220801DFE094C11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C1800D7-B98B-43B0-A6BD-7AA73CC52363}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22515" yWindow="-13785" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Field Mismatches" sheetId="2" r:id="rId2"/>
     <sheet name="ISIN Differences" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$M$133</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="288">
   <si>
     <t>Mnemo</t>
   </si>
@@ -807,6 +808,102 @@
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>ISIN Code</t>
+  </si>
+  <si>
+    <t>Free Float</t>
+  </si>
+  <si>
+    <t>Capping Factor</t>
+  </si>
+  <si>
+    <t>Effective Date of Review</t>
+  </si>
+  <si>
+    <t>Coen</t>
+  </si>
+  <si>
+    <t>EUTELSAT COMMUNICATIONS SA</t>
+  </si>
+  <si>
+    <t>XPAR</t>
+  </si>
+  <si>
+    <t>22-Dec-25</t>
+  </si>
+  <si>
+    <t>GRUVAKTIEBOLAGET VISCARIA</t>
+  </si>
+  <si>
+    <t>XSTO</t>
+  </si>
+  <si>
+    <t>MAGNUM</t>
+  </si>
+  <si>
+    <t>XAMS</t>
+  </si>
+  <si>
+    <t>THEON INTERNATIONAL PLC</t>
+  </si>
+  <si>
+    <t>Dataiku</t>
+  </si>
+  <si>
+    <t>COPPERSTONE RESOURCES AB</t>
+  </si>
+  <si>
+    <t>EUTELSAT COMMUNIC.</t>
+  </si>
+  <si>
+    <t>THEON INTERNAT</t>
+  </si>
+  <si>
+    <t>SAMSARA INC. CLASS A</t>
+  </si>
+  <si>
+    <t>XNYS</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>INABA DENKISANGYO CO LTD</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>QUICK CO LTD</t>
+  </si>
+  <si>
+    <t>SIMPLEX HOLINC</t>
+  </si>
+  <si>
+    <t>JP3383270000</t>
+  </si>
+  <si>
+    <t>TAIYO HOL CO LTD</t>
+  </si>
+  <si>
+    <t>JP3449100001</t>
+  </si>
+  <si>
+    <t>TOSEI CORP</t>
+  </si>
+  <si>
+    <t>VULCAN ENERGY RES</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>Check capping unilever</t>
   </si>
 </sst>
 </file>
@@ -862,7 +959,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -885,11 +982,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -905,11 +1013,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1220,8 +1386,8 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H133"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1316,7 +1482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1354,7 +1520,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1392,7 +1558,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1430,7 +1596,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1468,7 +1634,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1506,7 +1672,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1544,7 +1710,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1623,7 +1789,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1702,7 +1868,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1740,7 +1906,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1778,7 +1944,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1816,7 +1982,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1854,7 +2020,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1892,7 +2058,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1971,7 +2137,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2009,7 +2175,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2088,7 +2254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2126,7 +2292,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2164,7 +2330,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2202,7 +2368,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2240,7 +2406,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2278,7 +2444,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2316,7 +2482,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2354,7 +2520,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2392,7 +2558,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2430,7 +2596,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2468,7 +2634,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2506,7 +2672,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2585,7 +2751,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2623,7 +2789,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2661,7 +2827,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2699,7 +2865,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2778,7 +2944,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2816,7 +2982,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -2854,7 +3020,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -2892,7 +3058,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -2930,7 +3096,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2968,7 +3134,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -3006,7 +3172,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -3085,7 +3251,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3123,7 +3289,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3161,7 +3327,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3199,7 +3365,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3237,7 +3403,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -3316,7 +3482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3354,7 +3520,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -3474,7 +3640,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -3512,7 +3678,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -3550,7 +3716,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -3588,7 +3754,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -3626,7 +3792,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -3664,7 +3830,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -3702,7 +3868,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -3740,7 +3906,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -3778,7 +3944,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -3816,7 +3982,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -3854,7 +4020,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -3892,7 +4058,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -3930,7 +4096,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -3968,7 +4134,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -4006,7 +4172,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -4044,7 +4210,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -4082,7 +4248,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -4120,7 +4286,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -4158,7 +4324,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -4196,7 +4362,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -4234,7 +4400,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -4272,7 +4438,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -4310,7 +4476,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -4348,7 +4514,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -4386,7 +4552,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -4424,7 +4590,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -4462,7 +4628,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -4500,7 +4666,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -4538,7 +4704,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -4576,7 +4742,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -4614,7 +4780,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -4652,7 +4818,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -4690,7 +4856,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -4728,7 +4894,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -4766,7 +4932,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -4804,7 +4970,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -4842,7 +5008,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -4880,7 +5046,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -4918,7 +5084,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -4956,7 +5122,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -4994,7 +5160,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -5032,7 +5198,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -5070,7 +5236,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -5108,7 +5274,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -5228,7 +5394,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -5307,7 +5473,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -5345,7 +5511,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -5383,7 +5549,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -5421,7 +5587,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>120</v>
       </c>
@@ -5459,7 +5625,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -5497,7 +5663,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>122</v>
       </c>
@@ -5535,7 +5701,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>123</v>
       </c>
@@ -5573,7 +5739,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>124</v>
       </c>
@@ -5611,7 +5777,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>125</v>
       </c>
@@ -5690,7 +5856,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -5769,7 +5935,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>129</v>
       </c>
@@ -5807,7 +5973,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>130</v>
       </c>
@@ -5845,7 +6011,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>131</v>
       </c>
@@ -5924,7 +6090,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>133</v>
       </c>
@@ -5962,7 +6128,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>134</v>
       </c>
@@ -6000,7 +6166,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>135</v>
       </c>
@@ -6079,7 +6245,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>137</v>
       </c>
@@ -6117,7 +6283,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -6155,7 +6321,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>139</v>
       </c>
@@ -6193,7 +6359,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -6231,7 +6397,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>141</v>
       </c>
@@ -6269,7 +6435,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -6307,7 +6473,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>143</v>
       </c>
@@ -6349,11 +6515,8 @@
   <autoFilter ref="A1:M133" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="11">
       <filters>
-        <filter val="ISSUE"/>
+        <filter val="OK"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="12">
-      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6368,7 +6531,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8518,121 +8683,145 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BDD046-8157-4CAD-B5BD-E9590CD0231C}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
         <v>255</v>
@@ -8640,80 +8829,1447 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>112</v>
+        <v>251</v>
+      </c>
+      <c r="B19" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B28" t="s">
-        <v>254</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A28">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A1:A20">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD($B1,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD27D90D-7D9D-48C1-B918-76C3BD12A1C4}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3">
+        <v>820762652</v>
+      </c>
+      <c r="E3">
+        <v>0.35</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3">
+        <v>475178378</v>
+      </c>
+      <c r="J3">
+        <f>I3/D3</f>
+        <v>0.57894736906230471</v>
+      </c>
+      <c r="K3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4">
+        <v>240322560</v>
+      </c>
+      <c r="E4">
+        <v>0.9</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4">
+        <v>150201600</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J53" si="0">I4/D4</f>
+        <v>0.625</v>
+      </c>
+      <c r="K4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5">
+        <v>527548754</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5">
+        <v>612259739</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.1605747039637591</v>
+      </c>
+      <c r="K5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6">
+        <v>78750000</v>
+      </c>
+      <c r="E6">
+        <v>0.35</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6">
+        <v>70000000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="K6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10">
+        <v>150201600</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10">
+        <v>240322560</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11">
+        <v>475178378</v>
+      </c>
+      <c r="E11">
+        <v>0.35</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11">
+        <v>820762652</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1.7272727253595701</v>
+      </c>
+      <c r="K11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12">
+        <v>612259739</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12">
+        <v>527548754</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.8616420783467521</v>
+      </c>
+      <c r="K12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13">
+        <v>70000000</v>
+      </c>
+      <c r="E13">
+        <v>0.35</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>264</v>
+      </c>
+      <c r="H13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13">
+        <v>78750000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D17">
+        <v>612259739</v>
+      </c>
+      <c r="E17">
+        <v>0.8</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>264</v>
+      </c>
+      <c r="H17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I17">
+        <v>527548754</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.8616420783467521</v>
+      </c>
+      <c r="K17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21">
+        <v>612259739</v>
+      </c>
+      <c r="E21">
+        <v>0.8</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>264</v>
+      </c>
+      <c r="H21" t="s">
+        <v>203</v>
+      </c>
+      <c r="I21">
+        <v>527548754</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.8616420783467521</v>
+      </c>
+      <c r="K21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25">
+        <v>348744300</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25" t="s">
+        <v>276</v>
+      </c>
+      <c r="I25">
+        <v>358191770</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>1.0270899624739387</v>
+      </c>
+      <c r="K25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29">
+        <v>348744300</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>264</v>
+      </c>
+      <c r="H29" t="s">
+        <v>276</v>
+      </c>
+      <c r="I29">
+        <v>358191770</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>1.0270899624739387</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33">
+        <v>150201600</v>
+      </c>
+      <c r="E33">
+        <v>0.9</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>264</v>
+      </c>
+      <c r="H33" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33">
+        <v>240322560</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="K33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34">
+        <v>56829800</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>264</v>
+      </c>
+      <c r="H34" t="s">
+        <v>278</v>
+      </c>
+      <c r="I34">
+        <v>113659600</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D35">
+        <v>612259739</v>
+      </c>
+      <c r="E35">
+        <v>0.8</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" t="s">
+        <v>203</v>
+      </c>
+      <c r="I35">
+        <v>527548754</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0.8616420783467521</v>
+      </c>
+      <c r="K35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>279</v>
+      </c>
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36">
+        <v>18850676</v>
+      </c>
+      <c r="E36">
+        <v>0.75</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>264</v>
+      </c>
+      <c r="H36" t="s">
+        <v>278</v>
+      </c>
+      <c r="I36">
+        <v>56552028</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37">
+        <v>348744300</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>264</v>
+      </c>
+      <c r="H37" t="s">
+        <v>276</v>
+      </c>
+      <c r="I37">
+        <v>358191770</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>1.0270899624739387</v>
+      </c>
+      <c r="K37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38">
+        <v>58964127</v>
+      </c>
+      <c r="E38">
+        <v>0.7</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>264</v>
+      </c>
+      <c r="H38" t="s">
+        <v>278</v>
+      </c>
+      <c r="I38">
+        <v>235856508</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>282</v>
+      </c>
+      <c r="B39" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39">
+        <v>58419807</v>
+      </c>
+      <c r="E39">
+        <v>0.6</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" t="s">
+        <v>278</v>
+      </c>
+      <c r="I39">
+        <v>116839614</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>284</v>
+      </c>
+      <c r="B40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40">
+        <v>48683800</v>
+      </c>
+      <c r="E40">
+        <v>0.6</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>264</v>
+      </c>
+      <c r="H40" t="s">
+        <v>278</v>
+      </c>
+      <c r="I40">
+        <v>97367600</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41">
+        <v>234429180</v>
+      </c>
+      <c r="E41">
+        <v>0.75</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>264</v>
+      </c>
+      <c r="H41" t="s">
+        <v>286</v>
+      </c>
+      <c r="I41">
+        <v>442256467</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>1.8865248216966848</v>
+      </c>
+      <c r="K41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45">
+        <v>150201600</v>
+      </c>
+      <c r="E45">
+        <v>0.9</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>264</v>
+      </c>
+      <c r="H45" t="s">
+        <v>204</v>
+      </c>
+      <c r="I45">
+        <v>240322560</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="K45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46">
+        <v>56829800</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>264</v>
+      </c>
+      <c r="H46" t="s">
+        <v>278</v>
+      </c>
+      <c r="I46">
+        <v>113659600</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47">
+        <v>612259739</v>
+      </c>
+      <c r="E47">
+        <v>0.8</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>264</v>
+      </c>
+      <c r="H47" t="s">
+        <v>203</v>
+      </c>
+      <c r="I47">
+        <v>527548754</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>0.8616420783467521</v>
+      </c>
+      <c r="K47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48">
+        <v>18850676</v>
+      </c>
+      <c r="E48">
+        <v>0.75</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>264</v>
+      </c>
+      <c r="H48" t="s">
+        <v>278</v>
+      </c>
+      <c r="I48">
+        <v>56552028</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>274</v>
+      </c>
+      <c r="B49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49">
+        <v>348744300</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>264</v>
+      </c>
+      <c r="H49" t="s">
+        <v>276</v>
+      </c>
+      <c r="I49">
+        <v>358191770</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>1.0270899624739387</v>
+      </c>
+      <c r="K49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" t="s">
+        <v>281</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50">
+        <v>58964127</v>
+      </c>
+      <c r="E50">
+        <v>0.7</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>264</v>
+      </c>
+      <c r="H50" t="s">
+        <v>278</v>
+      </c>
+      <c r="I50">
+        <v>235856508</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B51" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51">
+        <v>58419807</v>
+      </c>
+      <c r="E51">
+        <v>0.6</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>264</v>
+      </c>
+      <c r="H51" t="s">
+        <v>278</v>
+      </c>
+      <c r="I51">
+        <v>116839614</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52">
+        <v>48683800</v>
+      </c>
+      <c r="E52">
+        <v>0.6</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>264</v>
+      </c>
+      <c r="H52" t="s">
+        <v>278</v>
+      </c>
+      <c r="I52">
+        <v>97367600</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>285</v>
+      </c>
+      <c r="B53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53">
+        <v>234429180</v>
+      </c>
+      <c r="E53">
+        <v>0.75</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>264</v>
+      </c>
+      <c r="H53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I53">
+        <v>442256467</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>1.8865248216966848</v>
+      </c>
+      <c r="K53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>MOD($B8,2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MOD($B15,2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD($B19,2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD($B23,2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD($B27,2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD($B31,2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD($B43,2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GUI + Reviews/Review Comparison/index_comparison_results_20251215_144317.xlsx
+++ b/GUI + Reviews/Review Comparison/index_comparison_results_20251215_144317.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/Review Comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_836E1D0C63C60CB7CD91A7C4C220801DFE094C11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C1800D7-B98B-43B0-A6BD-7AA73CC52363}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="11_836E1D0C63C60CB7CD91A7C4C220801DFE094C11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF2399B1-5022-4C86-ACC7-1001389FF9B3}"/>
   <bookViews>
     <workbookView xWindow="-22515" yWindow="-13785" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -903,7 +903,7 @@
     <t>AUD</t>
   </si>
   <si>
-    <t>Check capping unilever</t>
+    <t>Check capping unilever after rerun</t>
   </si>
 </sst>
 </file>
@@ -8685,8 +8685,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8800,7 +8800,7 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">

--- a/GUI + Reviews/Review Comparison/index_comparison_results_20251215_144317.xlsx
+++ b/GUI + Reviews/Review Comparison/index_comparison_results_20251215_144317.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/Review Comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="11_836E1D0C63C60CB7CD91A7C4C220801DFE094C11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF2399B1-5022-4C86-ACC7-1001389FF9B3}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="11_836E1D0C63C60CB7CD91A7C4C220801DFE094C11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FB2DBEF-82E1-4DD7-97F0-1A1BE2C065C6}"/>
   <bookViews>
     <workbookView xWindow="-22515" yWindow="-13785" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="287">
   <si>
     <t>Mnemo</t>
   </si>
@@ -802,9 +802,6 @@
   </si>
   <si>
     <t>check</t>
-  </si>
-  <si>
-    <t>Check now</t>
   </si>
   <si>
     <t>Check</t>
@@ -8685,8 +8682,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8699,7 +8696,7 @@
         <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8707,7 +8704,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8715,7 +8712,7 @@
         <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8723,7 +8720,7 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8731,10 +8728,10 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8742,25 +8739,31 @@
         <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8776,7 +8779,7 @@
         <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8784,7 +8787,7 @@
         <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8792,7 +8795,7 @@
         <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8800,7 +8803,7 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8808,7 +8811,7 @@
         <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8816,7 +8819,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8824,7 +8827,7 @@
         <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8832,7 +8835,7 @@
         <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8840,7 +8843,7 @@
         <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8848,7 +8851,7 @@
         <v>252</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -8889,10 +8892,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>154</v>
@@ -8901,30 +8904,30 @@
         <v>155</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>156</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3">
         <v>820762652</v>
@@ -8936,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H3" t="s">
         <v>203</v>
@@ -8954,13 +8957,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
         <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D4">
         <v>240322560</v>
@@ -8972,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H4" t="s">
         <v>204</v>
@@ -8990,13 +8993,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
         <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D5">
         <v>527548754</v>
@@ -9008,7 +9011,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H5" t="s">
         <v>203</v>
@@ -9026,13 +9029,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
         <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D6">
         <v>78750000</v>
@@ -9044,7 +9047,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H6" t="s">
         <v>203</v>
@@ -9067,10 +9070,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>154</v>
@@ -9079,30 +9082,30 @@
         <v>155</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>156</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
         <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10">
         <v>150201600</v>
@@ -9114,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H10" t="s">
         <v>204</v>
@@ -9132,13 +9135,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
         <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D11">
         <v>475178378</v>
@@ -9150,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H11" t="s">
         <v>203</v>
@@ -9168,13 +9171,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
         <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D12">
         <v>612259739</v>
@@ -9186,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H12" t="s">
         <v>203</v>
@@ -9204,13 +9207,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B13" t="s">
         <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D13">
         <v>70000000</v>
@@ -9222,7 +9225,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H13" t="s">
         <v>203</v>
@@ -9245,10 +9248,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>154</v>
@@ -9257,30 +9260,30 @@
         <v>155</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>156</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B17" t="s">
         <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D17">
         <v>612259739</v>
@@ -9292,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H17" t="s">
         <v>203</v>
@@ -9315,10 +9318,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>154</v>
@@ -9327,30 +9330,30 @@
         <v>155</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>156</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21" t="s">
         <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D21">
         <v>612259739</v>
@@ -9362,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H21" t="s">
         <v>203</v>
@@ -9385,10 +9388,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>154</v>
@@ -9397,30 +9400,30 @@
         <v>155</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>156</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" t="s">
         <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D25">
         <v>348744300</v>
@@ -9432,10 +9435,10 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I25">
         <v>358191770</v>
@@ -9455,10 +9458,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>154</v>
@@ -9467,30 +9470,30 @@
         <v>155</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>156</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s">
         <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D29">
         <v>348744300</v>
@@ -9502,10 +9505,10 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I29">
         <v>358191770</v>
@@ -9525,10 +9528,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>154</v>
@@ -9537,30 +9540,30 @@
         <v>155</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>156</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s">
         <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D33">
         <v>150201600</v>
@@ -9572,7 +9575,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H33" t="s">
         <v>204</v>
@@ -9590,7 +9593,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s">
         <v>182</v>
@@ -9608,10 +9611,10 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I34">
         <v>113659600</v>
@@ -9626,13 +9629,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
         <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D35">
         <v>612259739</v>
@@ -9644,7 +9647,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H35" t="s">
         <v>203</v>
@@ -9662,7 +9665,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s">
         <v>184</v>
@@ -9680,10 +9683,10 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I36">
         <v>56552028</v>
@@ -9698,13 +9701,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s">
         <v>165</v>
       </c>
       <c r="C37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D37">
         <v>348744300</v>
@@ -9716,10 +9719,10 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I37">
         <v>358191770</v>
@@ -9734,10 +9737,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" t="s">
         <v>280</v>
-      </c>
-      <c r="B38" t="s">
-        <v>281</v>
       </c>
       <c r="C38" t="s">
         <v>197</v>
@@ -9752,10 +9755,10 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I38">
         <v>235856508</v>
@@ -9770,10 +9773,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>281</v>
+      </c>
+      <c r="B39" t="s">
         <v>282</v>
-      </c>
-      <c r="B39" t="s">
-        <v>283</v>
       </c>
       <c r="C39" t="s">
         <v>197</v>
@@ -9788,10 +9791,10 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I39">
         <v>116839614</v>
@@ -9806,7 +9809,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s">
         <v>181</v>
@@ -9824,10 +9827,10 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I40">
         <v>97367600</v>
@@ -9842,7 +9845,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s">
         <v>183</v>
@@ -9860,10 +9863,10 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I41">
         <v>442256467</v>
@@ -9883,10 +9886,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>154</v>
@@ -9895,30 +9898,30 @@
         <v>155</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>156</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s">
         <v>178</v>
       </c>
       <c r="C45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D45">
         <v>150201600</v>
@@ -9930,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H45" t="s">
         <v>204</v>
@@ -9948,7 +9951,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s">
         <v>182</v>
@@ -9966,10 +9969,10 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I46">
         <v>113659600</v>
@@ -9984,13 +9987,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" t="s">
         <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D47">
         <v>612259739</v>
@@ -10002,7 +10005,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H47" t="s">
         <v>203</v>
@@ -10020,7 +10023,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B48" t="s">
         <v>184</v>
@@ -10038,10 +10041,10 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I48">
         <v>56552028</v>
@@ -10056,13 +10059,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B49" t="s">
         <v>165</v>
       </c>
       <c r="C49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D49">
         <v>348744300</v>
@@ -10074,10 +10077,10 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I49">
         <v>358191770</v>
@@ -10092,10 +10095,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>279</v>
+      </c>
+      <c r="B50" t="s">
         <v>280</v>
-      </c>
-      <c r="B50" t="s">
-        <v>281</v>
       </c>
       <c r="C50" t="s">
         <v>197</v>
@@ -10110,10 +10113,10 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I50">
         <v>235856508</v>
@@ -10128,10 +10131,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" t="s">
         <v>282</v>
-      </c>
-      <c r="B51" t="s">
-        <v>283</v>
       </c>
       <c r="C51" t="s">
         <v>197</v>
@@ -10146,10 +10149,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I51">
         <v>116839614</v>
@@ -10164,7 +10167,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B52" t="s">
         <v>181</v>
@@ -10182,10 +10185,10 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I52">
         <v>97367600</v>
@@ -10200,7 +10203,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B53" t="s">
         <v>183</v>
@@ -10218,10 +10221,10 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I53">
         <v>442256467</v>
